--- a/public/division_data.xlsx
+++ b/public/division_data.xlsx
@@ -430,7 +430,7 @@
         <v>B001</v>
       </c>
       <c r="C2" t="str">
-        <v>D001</v>
+        <v>DEP001</v>
       </c>
       <c r="D2" t="str">
         <v>DIV001</v>
@@ -450,7 +450,7 @@
         <v>B001</v>
       </c>
       <c r="C3" t="str">
-        <v>D001</v>
+        <v>DEP001</v>
       </c>
       <c r="D3" t="str">
         <v>DIV002</v>
